--- a/data/create_competition.xlsx
+++ b/data/create_competition.xlsx
@@ -526,7 +526,7 @@
     <col min="2" max="2" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="48.57642857142857" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="11" width="16.862142857142857" customWidth="1" bestFit="1"/>
@@ -558,7 +558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="57" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="77.25" customFormat="1" s="1">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -582,7 +582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="57.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="76.5" customFormat="1" s="1">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -606,7 +606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="49.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="76.5" customFormat="1" s="1">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -630,7 +630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="46.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="41.25" customFormat="1" s="1">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -654,7 +654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="74.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="65.25" customFormat="1" s="1">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
